--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H2">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I2">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J2">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q2">
-        <v>0.001202967252444445</v>
+        <v>1.235183239117556</v>
       </c>
       <c r="R2">
-        <v>0.010826705272</v>
+        <v>11.116649152058</v>
       </c>
       <c r="S2">
-        <v>2.417397618623854E-08</v>
+        <v>1.488390006500482E-05</v>
       </c>
       <c r="T2">
-        <v>2.417397618623853E-08</v>
+        <v>1.488390006500482E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H3">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I3">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J3">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N3">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q3">
-        <v>2.992909648980445</v>
+        <v>128.4702153692308</v>
       </c>
       <c r="R3">
-        <v>26.936186840824</v>
+        <v>1156.231938323077</v>
       </c>
       <c r="S3">
-        <v>6.014338830504292E-05</v>
+        <v>0.00154806006617395</v>
       </c>
       <c r="T3">
-        <v>6.01433883050429E-05</v>
+        <v>0.00154806006617395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H4">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I4">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J4">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N4">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q4">
-        <v>4.027195633260001</v>
+        <v>0.02635207854888889</v>
       </c>
       <c r="R4">
-        <v>36.24476069934001</v>
+        <v>0.23716870694</v>
       </c>
       <c r="S4">
-        <v>8.092766543555354E-05</v>
+        <v>3.175413098278697E-07</v>
       </c>
       <c r="T4">
-        <v>8.092766543555352E-05</v>
+        <v>3.175413098278697E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02140866666666667</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H5">
-        <v>0.06422600000000001</v>
+        <v>1.758629</v>
       </c>
       <c r="I5">
-        <v>0.0001839850293375998</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J5">
-        <v>0.0001839850293375997</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N5">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="O5">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P5">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q5">
-        <v>2.134321073876667</v>
+        <v>128.3723675965094</v>
       </c>
       <c r="R5">
-        <v>19.20888966489</v>
+        <v>1155.351308368585</v>
       </c>
       <c r="S5">
-        <v>4.288980162081708E-05</v>
+        <v>0.001546881005104591</v>
       </c>
       <c r="T5">
-        <v>4.288980162081707E-05</v>
+        <v>0.001546881005104591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.726732</v>
+        <v>0.5862096666666666</v>
       </c>
       <c r="H6">
-        <v>8.180195999999999</v>
+        <v>1.758629</v>
       </c>
       <c r="I6">
-        <v>0.02343340081971968</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="J6">
-        <v>0.02343340081971967</v>
+        <v>0.004018635577031636</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05619066666666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N6">
-        <v>0.168572</v>
+        <v>385.837593</v>
       </c>
       <c r="O6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q6">
-        <v>0.1532168889013333</v>
+        <v>75.39390892666634</v>
       </c>
       <c r="R6">
-        <v>1.378952000112</v>
+        <v>678.545180339997</v>
       </c>
       <c r="S6">
-        <v>3.078937864770711E-06</v>
+        <v>0.0009084930643782627</v>
       </c>
       <c r="T6">
-        <v>3.078937864770711E-06</v>
+        <v>0.0009084930643782627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,43 +856,43 @@
         <v>2.726732</v>
       </c>
       <c r="H7">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I7">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J7">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>139.7989746666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N7">
-        <v>419.396924</v>
+        <v>6.321202</v>
       </c>
       <c r="O7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q7">
-        <v>381.1943377907893</v>
+        <v>5.745407923954668</v>
       </c>
       <c r="R7">
-        <v>3430.749040117104</v>
+        <v>51.70867131559201</v>
       </c>
       <c r="S7">
-        <v>0.007660210887169662</v>
+        <v>6.923189585532376E-05</v>
       </c>
       <c r="T7">
-        <v>0.007660210887169661</v>
+        <v>6.923189585532375E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,13 +918,13 @@
         <v>2.726732</v>
       </c>
       <c r="H8">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I8">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J8">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.11053</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N8">
-        <v>564.33159</v>
+        <v>657.462113</v>
       </c>
       <c r="O8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q8">
-        <v>512.92700168796</v>
+        <v>597.5743274349054</v>
       </c>
       <c r="R8">
-        <v>4616.343015191639</v>
+        <v>5378.168946914148</v>
       </c>
       <c r="S8">
-        <v>0.01030741701312947</v>
+        <v>0.007200742601808502</v>
       </c>
       <c r="T8">
-        <v>0.01030741701312947</v>
+        <v>0.007200742601808501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,48 +980,48 @@
         <v>2.726732</v>
       </c>
       <c r="H9">
-        <v>8.180195999999999</v>
+        <v>8.180196</v>
       </c>
       <c r="I9">
-        <v>0.02343340081971968</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J9">
-        <v>0.02343340081971967</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>99.694255</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N9">
-        <v>299.082765</v>
+        <v>0.13486</v>
       </c>
       <c r="O9">
-        <v>0.2331157147689297</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P9">
-        <v>0.2331157147689298</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q9">
-        <v>271.8395153246599</v>
+        <v>0.1225756925066667</v>
       </c>
       <c r="R9">
-        <v>2446.55563792194</v>
+        <v>1.10318123256</v>
       </c>
       <c r="S9">
-        <v>0.005462693981555776</v>
+        <v>1.477031342306252E-06</v>
       </c>
       <c r="T9">
-        <v>0.005462693981555776</v>
+        <v>1.477031342306252E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>20.85570133333333</v>
+        <v>2.726732</v>
       </c>
       <c r="H10">
-        <v>62.567104</v>
+        <v>8.180196</v>
       </c>
       <c r="I10">
-        <v>0.1792328724349742</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J10">
-        <v>0.1792328724349742</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05619066666666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N10">
-        <v>0.168572</v>
+        <v>656.961365</v>
       </c>
       <c r="O10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q10">
-        <v>1.171895761720889</v>
+        <v>597.1191922363934</v>
       </c>
       <c r="R10">
-        <v>10.547061855488</v>
+        <v>5374.07273012754</v>
       </c>
       <c r="S10">
-        <v>2.354958555939822E-05</v>
+        <v>0.007195258244025637</v>
       </c>
       <c r="T10">
-        <v>2.354958555939822E-05</v>
+        <v>0.007195258244025635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>20.85570133333333</v>
+        <v>2.726732</v>
       </c>
       <c r="H11">
-        <v>62.567104</v>
+        <v>8.180196</v>
       </c>
       <c r="I11">
-        <v>0.1792328724349742</v>
+        <v>0.0186925307570226</v>
       </c>
       <c r="J11">
-        <v>0.1792328724349742</v>
+        <v>0.01869253075702259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7989746666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N11">
-        <v>419.396924</v>
+        <v>385.837593</v>
       </c>
       <c r="O11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q11">
-        <v>2915.605662354233</v>
+        <v>350.6919038786921</v>
       </c>
       <c r="R11">
-        <v>26240.4509611881</v>
+        <v>3156.227134908228</v>
       </c>
       <c r="S11">
-        <v>0.05858994225070848</v>
+        <v>0.00422582098399083</v>
       </c>
       <c r="T11">
-        <v>0.05858994225070848</v>
+        <v>0.004225820983990829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>20.85570133333333</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H12">
-        <v>62.567104</v>
+        <v>132.240547</v>
       </c>
       <c r="I12">
-        <v>0.1792328724349742</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J12">
-        <v>0.1792328724349742</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>188.11053</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N12">
-        <v>564.33159</v>
+        <v>6.321202</v>
       </c>
       <c r="O12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q12">
-        <v>3923.17703133504</v>
+        <v>92.87991224194379</v>
       </c>
       <c r="R12">
-        <v>35308.59328201536</v>
+        <v>835.9192101774941</v>
       </c>
       <c r="S12">
-        <v>0.07883738143093891</v>
+        <v>0.001119198583720371</v>
       </c>
       <c r="T12">
-        <v>0.07883738143093891</v>
+        <v>0.001119198583720371</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>20.85570133333333</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H13">
-        <v>62.567104</v>
+        <v>132.240547</v>
       </c>
       <c r="I13">
-        <v>0.1792328724349742</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J13">
-        <v>0.1792328724349742</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.694255</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N13">
-        <v>299.082765</v>
+        <v>657.462113</v>
       </c>
       <c r="O13">
-        <v>0.2331157147689297</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P13">
-        <v>0.2331157147689298</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q13">
-        <v>2079.193606929173</v>
+        <v>9660.349939432868</v>
       </c>
       <c r="R13">
-        <v>18712.74246236256</v>
+        <v>86943.14945489581</v>
       </c>
       <c r="S13">
-        <v>0.04178199916776742</v>
+        <v>0.1164067634161039</v>
       </c>
       <c r="T13">
-        <v>0.04178199916776742</v>
+        <v>0.1164067634161039</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04840700000000001</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H14">
-        <v>0.145221</v>
+        <v>132.240547</v>
       </c>
       <c r="I14">
-        <v>0.0004160073793391396</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J14">
-        <v>0.0004160073793391395</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05619066666666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N14">
-        <v>0.168572</v>
+        <v>0.13486</v>
       </c>
       <c r="O14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q14">
-        <v>0.002720021601333334</v>
+        <v>1.981551129824445</v>
       </c>
       <c r="R14">
-        <v>0.024480194412</v>
+        <v>17.83396016842</v>
       </c>
       <c r="S14">
-        <v>5.465962376205504E-08</v>
+        <v>2.387759812145369E-05</v>
       </c>
       <c r="T14">
-        <v>5.465962376205503E-08</v>
+        <v>2.387759812145369E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04840700000000001</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H15">
-        <v>0.145221</v>
+        <v>132.240547</v>
       </c>
       <c r="I15">
-        <v>0.0004160073793391396</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J15">
-        <v>0.0004160073793391395</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>139.7989746666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N15">
-        <v>419.396924</v>
+        <v>656.961365</v>
       </c>
       <c r="O15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q15">
-        <v>6.767248966689335</v>
+        <v>9652.992251718517</v>
       </c>
       <c r="R15">
-        <v>60.90524070020401</v>
+        <v>86876.93026546665</v>
       </c>
       <c r="S15">
-        <v>0.0001359898326697387</v>
+        <v>0.1163181036244376</v>
       </c>
       <c r="T15">
-        <v>0.0001359898326697387</v>
+        <v>0.1163181036244375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04840700000000001</v>
+        <v>44.08018233333333</v>
       </c>
       <c r="H16">
-        <v>0.145221</v>
+        <v>132.240547</v>
       </c>
       <c r="I16">
-        <v>0.0004160073793391396</v>
+        <v>0.3021823061602671</v>
       </c>
       <c r="J16">
-        <v>0.0004160073793391395</v>
+        <v>0.302182306160267</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>188.11053</v>
+        <v>128.612531</v>
       </c>
       <c r="N16">
-        <v>564.33159</v>
+        <v>385.837593</v>
       </c>
       <c r="O16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q16">
-        <v>9.105866425710001</v>
+        <v>5669.263816831486</v>
       </c>
       <c r="R16">
-        <v>81.95279783139001</v>
+        <v>51023.37435148337</v>
       </c>
       <c r="S16">
-        <v>0.000182985029461846</v>
+        <v>0.06831436293788383</v>
       </c>
       <c r="T16">
-        <v>0.000182985029461846</v>
+        <v>0.06831436293788382</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,51 +1473,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04840700000000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H17">
         <v>0.145221</v>
       </c>
       <c r="I17">
-        <v>0.0004160073793391396</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J17">
-        <v>0.0004160073793391395</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>99.694255</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N17">
-        <v>299.082765</v>
+        <v>6.321202</v>
       </c>
       <c r="O17">
-        <v>0.2331157147689297</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P17">
-        <v>0.2331157147689298</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q17">
-        <v>4.825899801785001</v>
+        <v>0.1019968084046667</v>
       </c>
       <c r="R17">
-        <v>43.43309821606501</v>
+        <v>0.917971275642</v>
       </c>
       <c r="S17">
-        <v>9.69778575837928E-05</v>
+        <v>1.229056754631059E-06</v>
       </c>
       <c r="T17">
-        <v>9.69778575837928E-05</v>
+        <v>1.229056754631059E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H18">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I18">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J18">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05619066666666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N18">
-        <v>0.168572</v>
+        <v>657.462113</v>
       </c>
       <c r="O18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q18">
-        <v>4.680914488405334</v>
+        <v>10.60858950133033</v>
       </c>
       <c r="R18">
-        <v>42.128230395648</v>
+        <v>95.477305511973</v>
       </c>
       <c r="S18">
-        <v>9.406433561894095E-05</v>
+        <v>0.0001278330056366904</v>
       </c>
       <c r="T18">
-        <v>9.406433561894092E-05</v>
+        <v>0.0001278330056366904</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H19">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I19">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J19">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>139.7989746666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N19">
-        <v>419.396924</v>
+        <v>0.13486</v>
       </c>
       <c r="O19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q19">
-        <v>11645.83167990076</v>
+        <v>0.002176056006666667</v>
       </c>
       <c r="R19">
-        <v>104812.4851191068</v>
+        <v>0.01958450406</v>
       </c>
       <c r="S19">
-        <v>0.234026368653676</v>
+        <v>2.622137275941263E-08</v>
       </c>
       <c r="T19">
-        <v>0.234026368653676</v>
+        <v>2.622137275941263E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H20">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I20">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J20">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.11053</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N20">
-        <v>564.33159</v>
+        <v>656.961365</v>
       </c>
       <c r="O20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q20">
-        <v>15670.38366926784</v>
+        <v>10.60050959851833</v>
       </c>
       <c r="R20">
-        <v>141033.4530234106</v>
+        <v>95.40458638666499</v>
       </c>
       <c r="S20">
-        <v>0.3149009092976922</v>
+        <v>0.0001277356431869905</v>
       </c>
       <c r="T20">
-        <v>0.3149009092976922</v>
+        <v>0.0001277356431869905</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>83.30412800000001</v>
+        <v>0.048407</v>
       </c>
       <c r="H21">
-        <v>249.912384</v>
+        <v>0.145221</v>
       </c>
       <c r="I21">
-        <v>0.7159115825688895</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="J21">
-        <v>0.7159115825688894</v>
+        <v>0.0003318438835775546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>99.694255</v>
+        <v>128.612531</v>
       </c>
       <c r="N21">
-        <v>299.082765</v>
+        <v>385.837593</v>
       </c>
       <c r="O21">
-        <v>0.2331157147689297</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P21">
-        <v>0.2331157147689298</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q21">
-        <v>8304.942979384641</v>
+        <v>6.225746788117001</v>
       </c>
       <c r="R21">
-        <v>74744.48681446176</v>
+        <v>56.031721093053</v>
       </c>
       <c r="S21">
-        <v>0.1668902402819023</v>
+        <v>7.501995662648329E-05</v>
       </c>
       <c r="T21">
-        <v>0.1668902402819023</v>
+        <v>7.501995662648329E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H22">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I22">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J22">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N22">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q22">
-        <v>0.5284473535631111</v>
+        <v>202.4287547916847</v>
       </c>
       <c r="R22">
-        <v>4.756026182068</v>
+        <v>1821.858793125162</v>
       </c>
       <c r="S22">
-        <v>1.061930298996679E-05</v>
+        <v>0.002439256995387428</v>
       </c>
       <c r="T22">
-        <v>1.061930298996679E-05</v>
+        <v>0.002439256995387428</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H23">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I23">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J23">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N23">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q23">
-        <v>1314.745002611995</v>
+        <v>21054.41921604465</v>
       </c>
       <c r="R23">
-        <v>11832.70502350796</v>
+        <v>189489.7729444019</v>
       </c>
       <c r="S23">
-        <v>0.02642018252744272</v>
+        <v>0.2537047634828708</v>
       </c>
       <c r="T23">
-        <v>0.02642018252744272</v>
+        <v>0.2537047634828708</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.404539666666667</v>
+        <v>96.071327</v>
       </c>
       <c r="H24">
-        <v>28.213619</v>
+        <v>288.213981</v>
       </c>
       <c r="I24">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="J24">
-        <v>0.08082215176773988</v>
+        <v>0.6585965305044555</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N24">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q24">
-        <v>1769.09294110269</v>
+        <v>4.318726386406667</v>
       </c>
       <c r="R24">
-        <v>15921.83646992421</v>
+        <v>38.86853747766</v>
       </c>
       <c r="S24">
-        <v>0.03555043625880758</v>
+        <v>5.204045028112511E-05</v>
       </c>
       <c r="T24">
-        <v>0.03555043625880758</v>
+        <v>5.204045028112511E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>96.071327</v>
+      </c>
+      <c r="H25">
+        <v>288.213981</v>
+      </c>
+      <c r="I25">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="J25">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N25">
+        <v>656.961365</v>
+      </c>
+      <c r="O25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q25">
+        <v>21038.38337442712</v>
+      </c>
+      <c r="R25">
+        <v>189345.4503698441</v>
+      </c>
+      <c r="S25">
+        <v>0.2535115323439314</v>
+      </c>
+      <c r="T25">
+        <v>0.2535115323439314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>96.071327</v>
+      </c>
+      <c r="H26">
+        <v>288.213981</v>
+      </c>
+      <c r="I26">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="J26">
+        <v>0.6585965305044555</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>128.612531</v>
+      </c>
+      <c r="N26">
+        <v>385.837593</v>
+      </c>
+      <c r="O26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q26">
+        <v>12355.97652199864</v>
+      </c>
+      <c r="R26">
+        <v>111203.7886979877</v>
+      </c>
+      <c r="S26">
+        <v>0.1488889372319849</v>
+      </c>
+      <c r="T26">
+        <v>0.1488889372319849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>9.404539666666667</v>
-      </c>
-      <c r="H25">
-        <v>28.213619</v>
-      </c>
-      <c r="I25">
-        <v>0.08082215176773988</v>
-      </c>
-      <c r="J25">
-        <v>0.08082215176773988</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>99.694255</v>
-      </c>
-      <c r="N25">
-        <v>299.082765</v>
-      </c>
-      <c r="O25">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="P25">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="Q25">
-        <v>937.5785756862816</v>
-      </c>
-      <c r="R25">
-        <v>8438.207181176535</v>
-      </c>
-      <c r="S25">
-        <v>0.0188409136784996</v>
-      </c>
-      <c r="T25">
-        <v>0.0188409136784996</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H27">
+        <v>7.079858</v>
+      </c>
+      <c r="I27">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J27">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>2.107067333333334</v>
+      </c>
+      <c r="N27">
+        <v>6.321202</v>
+      </c>
+      <c r="O27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="P27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="Q27">
+        <v>4.972579172146223</v>
+      </c>
+      <c r="R27">
+        <v>44.753212549316</v>
+      </c>
+      <c r="S27">
+        <v>5.991934566439248E-05</v>
+      </c>
+      <c r="T27">
+        <v>5.991934566439248E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H28">
+        <v>7.079858</v>
+      </c>
+      <c r="I28">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J28">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>219.1540376666667</v>
+      </c>
+      <c r="N28">
+        <v>657.462113</v>
+      </c>
+      <c r="O28">
+        <v>0.3852203158260555</v>
+      </c>
+      <c r="P28">
+        <v>0.3852203158260556</v>
+      </c>
+      <c r="Q28">
+        <v>517.1931556022171</v>
+      </c>
+      <c r="R28">
+        <v>4654.738400419954</v>
+      </c>
+      <c r="S28">
+        <v>0.006232153253461741</v>
+      </c>
+      <c r="T28">
+        <v>0.006232153253461742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H29">
+        <v>7.079858</v>
+      </c>
+      <c r="I29">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J29">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.04495333333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.13486</v>
+      </c>
+      <c r="O29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="P29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="Q29">
+        <v>0.1060877388755556</v>
+      </c>
+      <c r="R29">
+        <v>0.95478964988</v>
+      </c>
+      <c r="S29">
+        <v>1.278352274820512E-06</v>
+      </c>
+      <c r="T29">
+        <v>1.278352274820512E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H30">
+        <v>7.079858</v>
+      </c>
+      <c r="I30">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J30">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N30">
+        <v>656.961365</v>
+      </c>
+      <c r="O30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q30">
+        <v>516.7992417429077</v>
+      </c>
+      <c r="R30">
+        <v>4651.19317568617</v>
+      </c>
+      <c r="S30">
+        <v>0.00622740660994319</v>
+      </c>
+      <c r="T30">
+        <v>0.00622740660994319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.359952666666667</v>
+      </c>
+      <c r="H31">
+        <v>7.079858</v>
+      </c>
+      <c r="I31">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="J31">
+        <v>0.01617815311764565</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>128.612531</v>
+      </c>
+      <c r="N31">
+        <v>385.837593</v>
+      </c>
+      <c r="O31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q31">
+        <v>303.5194855001994</v>
+      </c>
+      <c r="R31">
+        <v>2731.675369501794</v>
+      </c>
+      <c r="S31">
+        <v>0.003657395556301504</v>
+      </c>
+      <c r="T31">
+        <v>0.003657395556301504</v>
       </c>
     </row>
   </sheetData>
